--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decisiongroup-my.sharepoint.com/personal/fabrizio_apparicio_decisionbr_com_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decisiongroup-my.sharepoint.com/personal/fabrizio_apparicio_decisionbr_com_br/Documents/Desktop/projeto-automacao-aso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{05E41CF2-2F9A-4D0D-923C-91A7E01B94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F6E7706-19AB-4922-A8BA-A1C3DACC9154}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{05E41CF2-2F9A-4D0D-923C-91A7E01B94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0379B6-16F8-4FD1-9EC6-8088ED61E475}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{722D524F-CB5F-4F91-8C48-8A36D4811E84}"/>
   </bookViews>
@@ -461,7 +461,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>45378</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">

--- a/funcionarios.xlsx
+++ b/funcionarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decisiongroup-my.sharepoint.com/personal/fabrizio_apparicio_decisionbr_com_br/Documents/Desktop/projeto-automacao-aso/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{05E41CF2-2F9A-4D0D-923C-91A7E01B94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE0379B6-16F8-4FD1-9EC6-8088ED61E475}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{05E41CF2-2F9A-4D0D-923C-91A7E01B94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C78638A2-B3B2-48DB-B728-07F02E3E62C8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{722D524F-CB5F-4F91-8C48-8A36D4811E84}"/>
+    <workbookView xWindow="-21720" yWindow="-1170" windowWidth="21840" windowHeight="13020" xr2:uid="{722D524F-CB5F-4F91-8C48-8A36D4811E84}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nome</t>
   </si>
@@ -47,10 +47,16 @@
     <t>Data_Admissao</t>
   </si>
   <si>
+    <t>victor.asfur@decisionbr.com.br</t>
+  </si>
+  <si>
     <t>Victor Asfur</t>
   </si>
   <si>
-    <t>victor.asfur@decisionbr.com.br</t>
+    <t>Rute</t>
+  </si>
+  <si>
+    <t>rute@decisionbr.com.br</t>
   </si>
 </sst>
 </file>
@@ -95,24 +101,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -130,12 +151,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF39A831-A8A1-4819-AFA8-0D66A1DAA9CC}" name="Tabela1" displayName="Tabela1" ref="B1:D6" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B1:D6" xr:uid="{AF39A831-A8A1-4819-AFA8-0D66A1DAA9CC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF39A831-A8A1-4819-AFA8-0D66A1DAA9CC}" name="Tabela1" displayName="Tabela1" ref="B1:D5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
+  <autoFilter ref="B1:D5" xr:uid="{AF39A831-A8A1-4819-AFA8-0D66A1DAA9CC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5405DBAD-4A6B-454A-ACD3-C49CD1D283D6}" name="Nome"/>
-    <tableColumn id="2" xr3:uid="{5A57E4CB-676A-4CF1-907C-C39528C41361}" name="Email"/>
-    <tableColumn id="3" xr3:uid="{264109E0-B91B-400F-B011-4A9A5A033496}" name="Data_Admissao"/>
+    <tableColumn id="1" xr3:uid="{5405DBAD-4A6B-454A-ACD3-C49CD1D283D6}" name="Nome" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{5A57E4CB-676A-4CF1-907C-C39528C41361}" name="Email" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{264109E0-B91B-400F-B011-4A9A5A033496}" name="Data_Admissao" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -461,13 +482,13 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.5703125" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -484,24 +505,36 @@
       </c>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44651</v>
+      <c r="D2" s="3">
+        <v>44661</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="2"/>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>43276</v>
+      </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
@@ -509,10 +542,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4E4F2298-69CE-4440-B74E-67E991AA16C9}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{623580F7-6BFD-4F75-9C85-6E186123760B}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>